--- a/config templates/team_template.xlsx
+++ b/config templates/team_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05574a92b2c6f2fa/Documents/Python Scripts/Neptune's Modeller/NeptunesModeller/config templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05574a92b2c6f2fa/Documents/Code/Python Scripts/Neptune's Modeller/NeptunesModeller/config templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1512FE5C-6E28-4E9D-87D5-E0C29066CBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1512FE5C-6E28-4E9D-87D5-E0C29066CBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BFC01CD-496A-4115-A2B3-ED7509DCA72E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,38 +29,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Players will be grouped into these teams. The name can be anything you want as long as you know what it refers to. </t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Players will be grouped into these teams. The name can be anything you want as long as you know what it refers to. </t>
         </r>
       </text>
     </comment>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0C59063D-F02B-4E1C-AECD-885ABC288E0B}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -77,16 +56,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -101,16 +70,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -149,16 +108,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -173,16 +122,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -197,16 +136,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -221,16 +150,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -245,16 +164,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -269,16 +178,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -293,16 +192,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -317,16 +206,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -341,16 +220,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -365,16 +234,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -387,16 +246,6 @@
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{9B5476B5-F82C-4BC1-BA72-931D653F6B14}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jamie MacIver:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -603,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -947,7 +796,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
